--- a/DIGGSTestPropertyDefinitions.xlsx
+++ b/DIGGSTestPropertyDefinitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\DIGGS Revisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\dponti\GitHub\diggs-dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="455">
   <si>
     <t>Code</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Mass of solids divided by total volume</t>
   </si>
   <si>
-    <t>pore pressure, equilibrium (u0)</t>
-  </si>
-  <si>
     <t>the value of pore pressure measured in the field after dissipation of induced excess pore pressure.  Could also be from CPTu test</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t xml:space="preserve">Calculated value that corrects the value of the Standard Penetration Blow Count (N), to account for energy of the hammer (specifically normalized to 60% energy) and specific overburden conditions (specifically to an overburden stress of 1 ton per square foot).  </t>
   </si>
   <si>
-    <t>Also referred to as moisture content, this is the mass of water divided by the mass of the solids, expressed as a percentage. Use of this parameter is for natural conditions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a result of a compaction test.  It is defined as the moisture content at the maximum dry unit weight as measured when a specific type and amount of energy is used for the compaction test.  This is also the value of the compaction moisture content when the soils achieves the maximum dry unit weight.    </t>
   </si>
   <si>
@@ -489,15 +483,6 @@
   </si>
   <si>
     <t>Ratio of the transverse contraction of a body to its longitudinal extension when stretched. Typical values in minerals are from 0.15 to 0.3 (Carbonates:0.15, Sandstones:0.2, Shales:0.25).</t>
-  </si>
-  <si>
-    <t>pore_water_pressure</t>
-  </si>
-  <si>
-    <t>pore water pressure</t>
-  </si>
-  <si>
-    <t>measured pore pressure from transducer</t>
   </si>
   <si>
     <t>preconsolidation_pressure</t>
@@ -1323,6 +1308,90 @@
 diggs:Diggs/diggs:measurement/diggs:Monitor/diggs:reading/diggs:Reading/diggs:sensor/diggs:Sensor/diggs:detector/diggs:Detector/diggs:measurand.
 These values serve to define the "results" of geotechnical and environmental tests and monitoring activities that result from test procedures and monitoring sensors, but that may not specifically bound to the procedures that produce the results.
 </t>
+  </si>
+  <si>
+    <t>pore_pressure_u1</t>
+  </si>
+  <si>
+    <t>measured pore pressure from u1 transducer</t>
+  </si>
+  <si>
+    <t>pore_pressure_u2</t>
+  </si>
+  <si>
+    <t>pore_pressure_u3</t>
+  </si>
+  <si>
+    <t>pore water pressure (u1)</t>
+  </si>
+  <si>
+    <t>equilibrium pore water pressure (u0)</t>
+  </si>
+  <si>
+    <t>pore water pressure (u2)</t>
+  </si>
+  <si>
+    <t>pore water pressure (u3)</t>
+  </si>
+  <si>
+    <t>measured pore pressure from u2 transducer</t>
+  </si>
+  <si>
+    <t>measured pore pressure from u3 transducer</t>
+  </si>
+  <si>
+    <t>Measured inclination angle (vertical = 0 degrees); bearing unspecified or specified as another property</t>
+  </si>
+  <si>
+    <t>inclination_x</t>
+  </si>
+  <si>
+    <t>inclination_y</t>
+  </si>
+  <si>
+    <t>x inclination</t>
+  </si>
+  <si>
+    <t>y inclination</t>
+  </si>
+  <si>
+    <t>Inclination measured in defined x direction (specified elsewhere)</t>
+  </si>
+  <si>
+    <t>Inclination measured in defined y direction (specified elsewhere)</t>
+  </si>
+  <si>
+    <t>tip_resistance_corrected</t>
+  </si>
+  <si>
+    <t>corrected tip resistance</t>
+  </si>
+  <si>
+    <t>Tip resistance corrected for u2 pore pressure measurement</t>
+  </si>
+  <si>
+    <t>HFFD</t>
+  </si>
+  <si>
+    <t>LFFD</t>
+  </si>
+  <si>
+    <t>Light fuel fluorescence detector value measured by sensor</t>
+  </si>
+  <si>
+    <t>Heavy fuel fluorescence detector value measured by sensor</t>
+  </si>
+  <si>
+    <t>Also referred to as moisture content, this is the mass of water divided by the mass of the solids, expressed as a percentage. Use of this parameter is for natural conditions. Determined in a laboratory or via sensor.</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>A measure of the conductive power of a specified material to the flow of an electric current.</t>
+  </si>
+  <si>
+    <t>conductance</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1507,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1480,6 +1549,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1496,6 +1566,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1554,25 +1643,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1676,39 +1746,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Definitions" displayName="Definitions" ref="A1:H123" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Definitions" displayName="Definitions" ref="A1:H131" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H131"/>
   <sortState ref="A2:H123">
     <sortCondition ref="C1:C123"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Start" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3014,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Dictionary ID" dataDxfId="10"/>
-    <tableColumn id="7" name="Code" dataDxfId="9"/>
-    <tableColumn id="2" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Data type" dataDxfId="6"/>
-    <tableColumn id="5" name="UOMType" dataDxfId="5"/>
-    <tableColumn id="6" name="Authority" dataDxfId="4"/>
+    <tableColumn id="7" name="Code" dataDxfId="2"/>
+    <tableColumn id="2" name="Name" dataDxfId="0"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Data type" dataDxfId="9"/>
+    <tableColumn id="5" name="UOMType" dataDxfId="8"/>
+    <tableColumn id="6" name="Authority" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C175" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C175"/>
-  <sortState ref="A2:C174">
-    <sortCondition ref="B1:B174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C184" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:C184"/>
+  <sortState ref="A2:C175">
+    <sortCondition ref="C1:C175"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Start" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+    <tableColumn id="1" name="Start" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Code" dataDxfId="1"/>
-    <tableColumn id="2" name="Element" dataDxfId="0"/>
+    <tableColumn id="4" name="Code" dataDxfId="4"/>
+    <tableColumn id="2" name="Element" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1994,13 +2064,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -2008,13 +2078,13 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="283.5" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2029,10 +2099,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2049,16 +2119,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2070,99 +2140,99 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3014,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3006,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3015,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>388</v>
+      <c r="D3" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3007,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3016,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>389</v>
+      <c r="D4" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3008,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3017,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>390</v>
+      <c r="D5" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
@@ -2171,22 +2241,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3009,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>391</v>
+      <c r="D6" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -2195,22 +2265,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3010,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>392</v>
+      <c r="D7" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>5</v>
@@ -2219,19 +2289,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3011,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>394</v>
+      <c r="D8" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>12</v>
@@ -2243,19 +2313,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3012,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>393</v>
+      <c r="D9" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>14</v>
@@ -2264,22 +2334,22 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3013,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>395</v>
+      <c r="D10" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>17</v>
@@ -2288,49 +2358,49 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3014,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>396</v>
+      <c r="D11" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3015,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>397</v>
+      <c r="D12" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
@@ -2339,96 +2409,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3016,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3017,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="str">
-        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>5</v>
@@ -2438,22 +2508,22 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
@@ -2462,19 +2532,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="189" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
       <c r="A18" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>398</v>
+      <c r="D18" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>23</v>
@@ -2486,18 +2556,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2510,18 +2580,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2534,18 +2604,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2558,18 +2628,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3033,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -2582,18 +2652,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -2603,21 +2673,21 @@
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2627,117 +2697,117 @@
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A25" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3037,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A26" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2747,69 +2817,69 @@
         <v>5</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>132</v>
+        <v>363</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3033,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>168</v>
+        <v>370</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2822,18 +2892,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="220.5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" ht="110.25" x14ac:dyDescent="0.5">
       <c r="A33" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -2843,21 +2913,21 @@
         <v>5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A34" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2867,22 +2937,22 @@
         <v>5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3037,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>356</v>
+      <c r="D35" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>56</v>
@@ -2891,97 +2961,97 @@
         <v>5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A36" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>58</v>
+        <v>452</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>59</v>
+        <v>453</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A37" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A38" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A38" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A39" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>5</v>
@@ -2990,22 +3060,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>5</v>
@@ -3014,22 +3084,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A41" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
@@ -3040,329 +3110,329 @@
     </row>
     <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A42" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>354</v>
+        <v>70</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A44" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A45" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A46" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="141.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A46" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="E46" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D47" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A47" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>336</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A48" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>380</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="4" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A50" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A49" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="A50" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="F50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A52" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A53" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A52" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A53" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>305</v>
-      </c>
       <c r="F53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A55" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A55" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>5</v>
@@ -3371,872 +3441,874 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A56" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A57" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A58" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A59" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A57" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A60" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A61" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A62" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A63" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A64" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A65" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A66" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A67" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A68" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A69" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A70" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A71" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A72" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A73" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A75" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A76" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A77" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A58" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A59" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A60" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A61" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="E77" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A62" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A63" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A64" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A65" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A66" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A67" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A68" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="A69" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A70" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A71" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A72" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A73" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A74" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="3" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A79" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="D79" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A75" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A80" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A76" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="E80" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A77" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A78" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A79" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="126" x14ac:dyDescent="0.5">
-      <c r="A80" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>409</v>
+        <v>140</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A82" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A82" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>154</v>
+      <c r="D82" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="204.75" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="63" x14ac:dyDescent="0.5">
       <c r="A84" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>410</v>
+        <v>146</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="173.25" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A85" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>411</v>
+        <v>149</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A86" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>412</v>
+        <v>151</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A87" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>166</v>
+        <v>382</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A88" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>240</v>
+        <v>381</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>171</v>
+        <v>427</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A90" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A90" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>174</v>
+        <v>435</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A91" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A91" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>175</v>
+        <v>430</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
       <c r="A92" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
@@ -4245,731 +4317,920 @@
         <v/>
       </c>
       <c r="B93" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>377</v>
+        <v>158</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>371</v>
+        <v>160</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>378</v>
+        <v>162</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>373</v>
+        <v>235</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>374</v>
+        <v>236</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="126" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A98" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A101" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>414</v>
+        <v>175</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A102" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A103" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A104" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A105" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A106" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A107" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A108" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A109" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A110" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A111" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A103" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A104" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A105" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A106" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A107" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" ht="126" x14ac:dyDescent="0.5">
-      <c r="A108" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A109" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A110" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="141.75" x14ac:dyDescent="0.5">
-      <c r="A111" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="F111" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A113" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A114" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A115" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A116" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A117" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A118" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A119" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A120" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A121" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="F121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A122" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A123" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A124" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A125" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A126" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A127" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A128" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A113" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A114" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A115" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A116" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A117" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="G128" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A129" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A130" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A131" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A118" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="14" t="s">
+      <c r="D131" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A119" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A120" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A121" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="A122" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="126" x14ac:dyDescent="0.5">
-      <c r="A123" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>79</v>
+      <c r="F131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4987,10 +5248,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A163" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5003,838 +5264,838 @@
   <sheetData>
     <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>314</v>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>314</v>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>259</v>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A15" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>264</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>265</v>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A17" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>314</v>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>264</v>
+        <v>226</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" s="5" t="s">
-        <v>418</v>
+        <v>227</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A21" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" s="5" t="s">
-        <v>419</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A22" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>269</v>
+      <c r="A22" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>314</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>284</v>
+        <v>222</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>358</v>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>273</v>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>358</v>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>358</v>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A35" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>273</v>
+        <v>371</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>359</v>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>359</v>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>359</v>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>359</v>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>360</v>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>360</v>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>360</v>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>360</v>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B45" s="5" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>260</v>
+      <c r="A46" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A47" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B47" s="5" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A48" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B48" s="5" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>52</v>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B50" s="5" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>272</v>
+        <v>335</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A52" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>256</v>
+        <v>321</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B53" s="5" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B54" s="5" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>63</v>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>382</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A58" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B58" s="5" t="s">
-        <v>68</v>
+        <v>381</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B59" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>281</v>
+        <v>323</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>280</v>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>74</v>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A62" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A62" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B62" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>314</v>
+        <v>218</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A63" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A63" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B63" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>314</v>
+        <v>222</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A64" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A64" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B64" s="5" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>271</v>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B66" s="5" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>80</v>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A68" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A68" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B68" s="5" t="s">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A69" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A69" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B69" s="5" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>369</v>
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>260</v>
@@ -5842,863 +6103,863 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>369</v>
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>293</v>
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>260</v>
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B74" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>314</v>
+        <v>140</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B75" s="5" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B76" s="5" t="s">
-        <v>376</v>
+        <v>170</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B77" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>291</v>
+        <v>323</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B78" s="5" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A79" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A79" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B79" s="5" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A80" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A80" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B80" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>314</v>
+        <v>413</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A81" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A81" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B81" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>291</v>
+        <v>414</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A82" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>284</v>
+      <c r="A82" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B83" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>284</v>
+        <v>140</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>256</v>
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B85" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>256</v>
+        <v>375</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A86" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>256</v>
+      <c r="A86" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>280</v>
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B88" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>278</v>
+        <v>323</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A89" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A89" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B89" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>314</v>
+        <v>367</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>107</v>
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A91" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>110</v>
+      <c r="A91" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>113</v>
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>119</v>
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B94" s="5" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B95" s="5" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B96" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>314</v>
+        <v>170</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B97" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>314</v>
+        <v>323</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B98" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>314</v>
+        <v>367</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B99" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>281</v>
+        <v>178</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B100" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>281</v>
+        <v>199</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B101" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>281</v>
+        <v>202</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>142</v>
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>142</v>
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B104" s="7" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B105" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>256</v>
+        <v>420</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B106" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>256</v>
+        <v>106</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B107" s="5" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>153</v>
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>153</v>
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B110" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A111" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A111" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B111" s="5" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>156</v>
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>159</v>
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>161</v>
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" s="5" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>163</v>
+        <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" s="5" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B118" s="5" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B119" s="5" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B120" s="5" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B121" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>287</v>
+        <v>135</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B122" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>288</v>
+        <v>137</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B123" s="5" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>175</v>
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B125" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>294</v>
+        <v>149</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B126" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>284</v>
+        <v>40</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>294</v>
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B128" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>295</v>
+        <v>82</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B129" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>272</v>
+        <v>371</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>284</v>
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B131" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>293</v>
+        <v>94</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B132" s="5" t="s">
-        <v>328</v>
+        <v>172</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B133" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B134" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B135" s="5" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>284</v>
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>293</v>
+        <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>314</v>
+        <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B139" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>357</v>
+        <v>160</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B140" s="5" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B141" s="5" t="s">
-        <v>372</v>
+        <v>168</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B142" s="5" t="s">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>284</v>
@@ -6706,398 +6967,506 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B143" s="5" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B144" s="5" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B145" s="5" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>289</v>
+        <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>256</v>
+        <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>256</v>
+        <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B149" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>253</v>
+        <v>84</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A150" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A150" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B150" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>291</v>
+        <v>447</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B151" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>292</v>
+        <v>91</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A152" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A152" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B152" s="5" t="s">
-        <v>324</v>
+        <v>438</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A153" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A153" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B153" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>276</v>
+        <v>439</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A154" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A154" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B154" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>295</v>
+        <v>448</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>276</v>
+        <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A156" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A157" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>290</v>
+      <c r="A156" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A157" s="21" t="str">
+        <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B158" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B159" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A160" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A160" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B160" s="5" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A161" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A161" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B161" s="5" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A162" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B162" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A163" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>223</v>
+        <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A164" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B164" s="5" t="s">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A165" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B165" s="5" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A166" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B166" s="5" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A167" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B167" s="5" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A168" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B168" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>256</v>
+        <v>55</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A169" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>314</v>
+      <c r="A169" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A170" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B170" s="5" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A171" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A171" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B171" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>264</v>
+        <v>172</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A172" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A172" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B172" s="5" t="s">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A173" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+      <c r="A173" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B173" s="5" t="s">
-        <v>379</v>
+        <v>52</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A174" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B174" s="5" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A175" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$1994,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B175" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A176" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A177" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A178" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C175" s="10" t="s">
-        <v>294</v>
+      <c r="C178" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A179" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A180" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A181" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A182" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A183" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A184" s="5" t="str">
+        <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2002,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
